--- a/sprint1/resources/WeightedScoring.xlsx
+++ b/sprint1/resources/WeightedScoring.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkelly\OneDrive\Courses\EET260\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedd740b53416be3/Courses/EET260-2/published/sprint1/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="1E0F0F2C6554DA95CF5A3A620DEABB8102D3B479" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A361FDC2-A6CD-44C0-A81D-D0727FFB8303}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="1E0F0F2C6554DA95CF5A3A620DEABB8102D3B479" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51DB7235-DCFF-41AB-AFAE-C8C667CF4D81}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12120" windowHeight="9120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="690" windowWidth="16200" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="ScoreCard" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Criteria</t>
   </si>
@@ -53,78 +54,9 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Weighted Scoring Model for CIT233</t>
-  </si>
-  <si>
-    <t>Includes specific deliverables with high value</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Does </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> require transistion after class is completed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Does </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> require significant financial commitment.</t>
-    </r>
-  </si>
-  <si>
-    <t>Clear client or sponsor identified</t>
-  </si>
-  <si>
-    <t>Little risk included</t>
-  </si>
-  <si>
-    <t>Can be completed in approx. 7 weeks</t>
-  </si>
-  <si>
-    <t>Scope appropriate for team of 10. Supports formation of subteams.</t>
-  </si>
-  <si>
     <t>Note: Enter your scores (1-10) for each project in the template below.</t>
   </si>
   <si>
-    <t>Little external dependency</t>
-  </si>
-  <si>
     <t>Project 3</t>
   </si>
   <si>
@@ -153,6 +85,9 @@
   </si>
   <si>
     <t>Criteria 8</t>
+  </si>
+  <si>
+    <t>Weighted Scoring Model forEET260</t>
   </si>
 </sst>
 </file>
@@ -231,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,9 +181,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,7 +288,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$F$5</c:f>
+              <c:f>ScoreCard!$C$5:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -376,298 +308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0092-4C05-B0D3-6C8C577FE74C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="108289408"/>
-        <c:axId val="108328064"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="108289408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="108328064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="108328064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="108289408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="C0C0C0"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Weighted Score by Project</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.296875"/>
-          <c:y val="3.4285714285714287E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.162109375"/>
-          <c:y val="0.1657142857142857"/>
-          <c:w val="0.783203125"/>
-          <c:h val="0.70285714285714285"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9999FF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$5:$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Project 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Project 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Project 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Project 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$14:$F$14</c:f>
+              <c:f>ScoreCard!$C$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -852,49 +493,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1028" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1284,395 +882,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.46484375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9">
-        <f>SUM(B6:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <f>$B6*C6+$B7*C7+$B8*C8+$B9*C9+$B10*C10+$B11*C11+$B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f>$B6*D6+$B7*D7+$B8*D8+$B9*D9+$B10*D10+$B11*D11+$B13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>$B6*E6+$B7*E7+$B8*E8+$B9*E9+$B10*E10+$B11*E11+$B13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f>$B6*F6+$B7*F7+$B8*F8+$B9*F9+$B10*F10+$B11*F11+$B13*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CADCFA-9567-4BB3-97DA-77CD01F1BE0F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.46484375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,21 +917,21 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1710,15 +945,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7">
         <v>0.3</v>
@@ -1736,9 +971,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7">
         <v>0.2</v>
@@ -1756,9 +991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>0.15</v>
@@ -1776,9 +1011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7">
         <v>0.1</v>
@@ -1796,9 +1031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7">
         <v>0.1</v>
@@ -1816,9 +1051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7">
         <v>0.05</v>
@@ -1836,9 +1071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
         <v>0.05</v>
@@ -1848,9 +1083,9 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7">
         <v>0.05</v>
@@ -1868,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1893,121 +1128,121 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2022,32 +1257,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>